--- a/Results/VICINITY Core Ontology/Candidate CQs/P1_GPT4_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Candidate CQs/P1_GPT4_VICINITYCore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\VICINITY Core Ontology\Candidate CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ABC0B7-215E-4356-A1BF-A99736E31468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05800CA3-7527-46F0-9AFB-4DF4D6D82220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1675,9 +1675,6 @@
     <t>What can be said about the serviceVersion's comment regarding the service version?</t>
   </si>
   <si>
-    <t>Sentence2</t>
-  </si>
-  <si>
     <t>Are there any potential challenges or drawbacks associated with implementing the "sv" field in software versions, and if so, how can they be addressed?</t>
   </si>
   <si>
@@ -1703,6 +1700,9 @@
   </si>
   <si>
     <t>Who is the owner of the building?</t>
+  </si>
+  <si>
+    <t>Candidate CQs</t>
   </si>
 </sst>
 </file>
@@ -2070,15 +2070,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="A567" sqref="A567:A579"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4863,47 +4863,47 @@
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
